--- a/Test Cases - Excel Files/Scenariusz Testowy - Weryfikacja menu bocznego - Kategorie.xlsx
+++ b/Test Cases - Excel Files/Scenariusz Testowy - Weryfikacja menu bocznego - Kategorie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Documents\GitHub\Selenium-Project-Online-Store-Tests\Test Cases - Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70AA9FF-318E-4DB3-914F-B2FAAD633C3A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E32E1B7-CA09-4BBE-A32A-1F37AEA146B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>Przedmiot testów</t>
   </si>
@@ -112,15 +112,8 @@
 Liga Niemiecka</t>
   </si>
   <si>
-    <t>Wejdź na główną stronę sklepu i zweryfikuj tytuł strony</t>
-  </si>
-  <si>
     <t>Adres głównej strony sklepu: http://koszulkifootball.sellingo.pl/
 Poprawny tytuł strony to: 'Koszulkifootball.sellingo.pl'</t>
-  </si>
-  <si>
-    <t>Strona główna sklepu wyświetlona
-Tytuł strony: ''Koszulkifootball.sellingo.pl''</t>
   </si>
   <si>
     <t>Zweryfikuj czy menu boczne: 'Kategorie' zawiera poprawną ilość zakładek</t>
@@ -211,19 +204,10 @@
     <t>Kliknij w zakładkę: 'Koszulki' i zweryfikuj czy zwrócona lista produktów zawiera odpowiednią ich ilość.</t>
   </si>
   <si>
-    <t>Kliknij w zakładkę: 'Koszulki' i zweryfikuj czy wyświetlone produkty mają poprane nazwy</t>
-  </si>
-  <si>
     <t>Kliknij w zakładkę: 'Liga Polska' i zweryfikuj czy zwrócona lista produktów zawiera odpowiednią ich ilość.</t>
   </si>
   <si>
-    <t>Kliknij w zakładkę: 'Liga Polska' i zweryfikuj czy wyświetlone produkty mają poprane nazwy</t>
-  </si>
-  <si>
     <t>Kliknij w zakładkę: 'Liga Angielska' i zweryfikuj czy zwrócona lista produktów zawiera odpowiednią ich ilość.</t>
-  </si>
-  <si>
-    <t>Kliknij w zakładkę: 'Liga Angielska' i zweryfikuj czy wyświetlone produkty mają poprane nazwy</t>
   </si>
   <si>
     <t xml:space="preserve">Poprawne nazwy wyświetlonych produktów to:
@@ -244,9 +228,6 @@
     <t>Kliknij w zakładkę: 'Liga Włoska' i zweryfikuj czy zwrócona lista produktów zawiera odpowiednią ich ilość.</t>
   </si>
   <si>
-    <t>Kliknij w zakładkę: 'Liga Włoska' i zweryfikuj czy wyświetlone produkty mają poprane nazwy</t>
-  </si>
-  <si>
     <t>Poprawna ilość zwróconych na liście produktów to: 2</t>
   </si>
   <si>
@@ -267,9 +248,6 @@
     <t>Kliknij w zakładkę: 'Liga Hiszpańska' i zweryfikuj czy zwrócona lista produktów zawiera odpowiednią ich ilość.</t>
   </si>
   <si>
-    <t>Kliknij w zakładkę: 'Liga Hiszpańska' i zweryfikuj czy wyświetlone produkty mają poprane nazwy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poprawne nazwy wyświetlonych produktów to:
 Replika koszulki FC Barcelona
 Replika koszulki Real Madryt    
@@ -284,9 +262,6 @@
     <t>Kliknij w zakładkę: 'Liga Niemiecka' i zweryfikuj czy zwrócona lista produktów zawiera odpowiednią ich ilość.</t>
   </si>
   <si>
-    <t>Kliknij w zakładkę: 'Liga Niemiecka' i zweryfikuj czy wyświetlone produkty mają poprane nazwy</t>
-  </si>
-  <si>
     <t>Poprawna ilość zwróconych na liście produktów to: 1</t>
   </si>
   <si>
@@ -327,13 +302,49 @@
   </si>
   <si>
     <t>Weryfikacja menu bocznego -Kategorie</t>
+  </si>
+  <si>
+    <t>Wejdź na główną stronę sklepu, usuń pliki cookies i zweryfikuj tytuł strony. Dodatkowo wykonaj zrzut ekranu.</t>
+  </si>
+  <si>
+    <t>Strona główna sklepu wyświetlona
+Tytuł strony: ''Koszulkifootball.sellingo.pl''
+Pliki Cookies usunięte
+Zrzut ekranu zapisany do pliku .jpg</t>
+  </si>
+  <si>
+    <t>W zakładce 'Koszulki' zweryfikuj czy wyświetlone produkty mają poprane nazwy</t>
+  </si>
+  <si>
+    <t>W zakładce 'Liga Polska' zweryfikuj czy wyświetlone produkty mają poprane nazwy</t>
+  </si>
+  <si>
+    <t>W zakładce 'Liga Angielska' zweryfikuj czy wyświetlone produkty mają poprane nazwy</t>
+  </si>
+  <si>
+    <t>W zakładce 'Liga Włoska' zweryfikuj czy wyświetlone produkty mają poprane nazwy</t>
+  </si>
+  <si>
+    <t>W zakładce 'Liga Hiszpańska' zweryfikuj czy wyświetlone produkty mają poprane nazwy</t>
+  </si>
+  <si>
+    <t>W zakładce 'Liga Niemiecka' zweryfikuj czy wyświetlone produkty mają poprane nazwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zweryfikuj czy po kliknięciu na kazdą z zakładek w menu Kategorie, zmienia się jej kolor na poprawny. </t>
+  </si>
+  <si>
+    <t>Poprawny kolor po kliknięciu na zakładkę to: rgba(255, 89, 0, 1)</t>
+  </si>
+  <si>
+    <t>Kolor zakładek zmieniony na: rgba(255, 89, 0, 1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -379,6 +390,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -412,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -594,33 +612,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -667,6 +677,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -985,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1004,565 +1044,582 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="20" t="s">
+      <c r="D22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H22" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="17" t="s">
+    <row r="23" spans="2:8" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13">
+        <v>17</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H23" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
